--- a/Logs/check_code/training_timestep_output.xlsx
+++ b/Logs/check_code/training_timestep_output.xlsx
@@ -405,7 +405,7 @@
         <v>-1</v>
       </c>
       <c r="C2">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -812,7 +812,7 @@
         <v>-1</v>
       </c>
       <c r="C39">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -856,7 +856,7 @@
         <v>-1.46875</v>
       </c>
       <c r="C43">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -911,7 +911,7 @@
         <v>-0.650390625</v>
       </c>
       <c r="C48">
-        <v>0.7998046875</v>
+        <v>1.19921875</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1043,7 +1043,7 @@
         <v>-1.46875</v>
       </c>
       <c r="C60">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1758,7 +1758,7 @@
         <v>-0.90380859375</v>
       </c>
       <c r="C125">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2297,7 +2297,7 @@
         <v>-1.267578125</v>
       </c>
       <c r="C174">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2517,7 +2517,7 @@
         <v>-0.84375</v>
       </c>
       <c r="C194">
-        <v>0.7998046875</v>
+        <v>1.19921875</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2561,7 +2561,7 @@
         <v>-1.267578125</v>
       </c>
       <c r="C198">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2616,7 +2616,7 @@
         <v>-0.90380859375</v>
       </c>
       <c r="C203">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2781,7 +2781,7 @@
         <v>-1.171875</v>
       </c>
       <c r="C218">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2891,7 +2891,7 @@
         <v>-0.8056640625</v>
       </c>
       <c r="C228">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2935,7 +2935,7 @@
         <v>-1.267578125</v>
       </c>
       <c r="C232">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3320,7 +3320,7 @@
         <v>-0.90380859375</v>
       </c>
       <c r="C267">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3540,7 +3540,7 @@
         <v>-1</v>
       </c>
       <c r="C287">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3639,7 +3639,7 @@
         <v>-1.267578125</v>
       </c>
       <c r="C296">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3738,7 +3738,7 @@
         <v>-0.90380859375</v>
       </c>
       <c r="C305">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3947,7 +3947,7 @@
         <v>-0.90380859375</v>
       </c>
       <c r="C324">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -4178,7 +4178,7 @@
         <v>-1</v>
       </c>
       <c r="C345">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4376,7 +4376,7 @@
         <v>-1.267578125</v>
       </c>
       <c r="C363">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4552,7 +4552,7 @@
         <v>-1</v>
       </c>
       <c r="C379">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4574,7 +4574,7 @@
         <v>-0.90380859375</v>
       </c>
       <c r="C381">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4684,7 +4684,7 @@
         <v>-1</v>
       </c>
       <c r="C391">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4959,7 +4959,7 @@
         <v>-1.267578125</v>
       </c>
       <c r="C416">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -5058,7 +5058,7 @@
         <v>-0.90380859375</v>
       </c>
       <c r="C425">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5168,7 +5168,7 @@
         <v>-1</v>
       </c>
       <c r="C435">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5333,7 +5333,7 @@
         <v>-0.650390625</v>
       </c>
       <c r="C450">
-        <v>0.7998046875</v>
+        <v>1.19921875</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5421,7 +5421,7 @@
         <v>-1.267578125</v>
       </c>
       <c r="C458">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5509,7 +5509,7 @@
         <v>-1.267578125</v>
       </c>
       <c r="C466">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5564,7 +5564,7 @@
         <v>-0.84375</v>
       </c>
       <c r="C471">
-        <v>0.7998046875</v>
+        <v>1.19921875</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5608,7 +5608,7 @@
         <v>-0.90380859375</v>
       </c>
       <c r="C475">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5762,7 +5762,7 @@
         <v>-0.90380859375</v>
       </c>
       <c r="C489">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5806,7 +5806,7 @@
         <v>-0.90380859375</v>
       </c>
       <c r="C493">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5883,7 +5883,7 @@
         <v>-1.46875</v>
       </c>
       <c r="C500">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -6070,7 +6070,7 @@
         <v>-0.90380859375</v>
       </c>
       <c r="C517">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6103,7 +6103,7 @@
         <v>-1</v>
       </c>
       <c r="C520">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6169,7 +6169,7 @@
         <v>-1</v>
       </c>
       <c r="C526">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6191,7 +6191,7 @@
         <v>-0.90380859375</v>
       </c>
       <c r="C528">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6334,7 +6334,7 @@
         <v>-1.46875</v>
       </c>
       <c r="C541">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6708,7 +6708,7 @@
         <v>-0.650390625</v>
       </c>
       <c r="C575">
-        <v>0.7998046875</v>
+        <v>1.19921875</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6752,7 +6752,7 @@
         <v>-0.84375</v>
       </c>
       <c r="C579">
-        <v>0.7998046875</v>
+        <v>1.19921875</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -7148,7 +7148,7 @@
         <v>-1.373046875</v>
       </c>
       <c r="C615">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7192,7 +7192,7 @@
         <v>-1.267578125</v>
       </c>
       <c r="C619">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7236,7 +7236,7 @@
         <v>-1.46875</v>
       </c>
       <c r="C623">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7291,7 +7291,7 @@
         <v>-0.90380859375</v>
       </c>
       <c r="C628">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7335,7 +7335,7 @@
         <v>-1.267578125</v>
       </c>
       <c r="C632">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7379,7 +7379,7 @@
         <v>-1.46875</v>
       </c>
       <c r="C636">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7489,7 +7489,7 @@
         <v>-1.267578125</v>
       </c>
       <c r="C646">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7522,7 +7522,7 @@
         <v>-1.267578125</v>
       </c>
       <c r="C649">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7566,7 +7566,7 @@
         <v>-1.373046875</v>
       </c>
       <c r="C653">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7764,7 +7764,7 @@
         <v>-1.46875</v>
       </c>
       <c r="C671">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -7808,7 +7808,7 @@
         <v>-0.90380859375</v>
       </c>
       <c r="C675">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -7852,7 +7852,7 @@
         <v>-0.90380859375</v>
       </c>
       <c r="C679">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -7940,7 +7940,7 @@
         <v>-0.90380859375</v>
       </c>
       <c r="C687">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -7984,7 +7984,7 @@
         <v>-0.84375</v>
       </c>
       <c r="C691">
-        <v>0.7998046875</v>
+        <v>1.19921875</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -8028,7 +8028,7 @@
         <v>-0.650390625</v>
       </c>
       <c r="C695">
-        <v>0.7998046875</v>
+        <v>1.19921875</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -8094,7 +8094,7 @@
         <v>-0.650390625</v>
       </c>
       <c r="C701">
-        <v>0.7998046875</v>
+        <v>1.19921875</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -8160,7 +8160,7 @@
         <v>-0.90380859375</v>
       </c>
       <c r="C707">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -8259,7 +8259,7 @@
         <v>-1.267578125</v>
       </c>
       <c r="C716">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -8336,7 +8336,7 @@
         <v>-0.650390625</v>
       </c>
       <c r="C723">
-        <v>0.7998046875</v>
+        <v>1.19921875</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -8435,7 +8435,7 @@
         <v>-0.84375</v>
       </c>
       <c r="C732">
-        <v>0.7998046875</v>
+        <v>1.19921875</v>
       </c>
     </row>
     <row r="733" spans="1:3">
@@ -8512,7 +8512,7 @@
         <v>-0.90380859375</v>
       </c>
       <c r="C739">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="740" spans="1:3">
@@ -8600,7 +8600,7 @@
         <v>-0.90380859375</v>
       </c>
       <c r="C747">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="748" spans="1:3">
@@ -8633,7 +8633,7 @@
         <v>-0.84375</v>
       </c>
       <c r="C750">
-        <v>0.7998046875</v>
+        <v>1.19921875</v>
       </c>
     </row>
     <row r="751" spans="1:3">
@@ -8666,7 +8666,7 @@
         <v>-1</v>
       </c>
       <c r="C753">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="754" spans="1:3">
@@ -8710,7 +8710,7 @@
         <v>-0.650390625</v>
       </c>
       <c r="C757">
-        <v>0.7998046875</v>
+        <v>1.19921875</v>
       </c>
     </row>
     <row r="758" spans="1:3">
@@ -8776,7 +8776,7 @@
         <v>-1</v>
       </c>
       <c r="C763">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="764" spans="1:3">
@@ -8798,7 +8798,7 @@
         <v>-0.650390625</v>
       </c>
       <c r="C765">
-        <v>0.7998046875</v>
+        <v>1.19921875</v>
       </c>
     </row>
     <row r="766" spans="1:3">
@@ -8842,7 +8842,7 @@
         <v>-1</v>
       </c>
       <c r="C769">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="770" spans="1:3">
@@ -9029,7 +9029,7 @@
         <v>-1.373046875</v>
       </c>
       <c r="C786">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="787" spans="1:3">
@@ -9084,7 +9084,7 @@
         <v>-1</v>
       </c>
       <c r="C791">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="792" spans="1:3">
@@ -9139,7 +9139,7 @@
         <v>-1</v>
       </c>
       <c r="C796">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="797" spans="1:3">
@@ -9161,7 +9161,7 @@
         <v>-0.650390625</v>
       </c>
       <c r="C798">
-        <v>0.7998046875</v>
+        <v>1.19921875</v>
       </c>
     </row>
     <row r="799" spans="1:3">
@@ -9205,7 +9205,7 @@
         <v>-0.8056640625</v>
       </c>
       <c r="C802">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="803" spans="1:3">
@@ -9304,7 +9304,7 @@
         <v>-0.90380859375</v>
       </c>
       <c r="C811">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="812" spans="1:3">
@@ -9348,7 +9348,7 @@
         <v>-1</v>
       </c>
       <c r="C815">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="816" spans="1:3">
@@ -9370,7 +9370,7 @@
         <v>-1</v>
       </c>
       <c r="C817">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="818" spans="1:3">
@@ -9392,7 +9392,7 @@
         <v>-0.90380859375</v>
       </c>
       <c r="C819">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="820" spans="1:3">
@@ -9436,7 +9436,7 @@
         <v>-0.84375</v>
       </c>
       <c r="C823">
-        <v>0.7998046875</v>
+        <v>1.19921875</v>
       </c>
     </row>
     <row r="824" spans="1:3">
@@ -9480,7 +9480,7 @@
         <v>-1</v>
       </c>
       <c r="C827">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="828" spans="1:3">
@@ -9502,7 +9502,7 @@
         <v>-1</v>
       </c>
       <c r="C829">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="830" spans="1:3">
@@ -9524,7 +9524,7 @@
         <v>-1</v>
       </c>
       <c r="C831">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="832" spans="1:3">
@@ -9568,7 +9568,7 @@
         <v>-1</v>
       </c>
       <c r="C835">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="836" spans="1:3">
@@ -9590,7 +9590,7 @@
         <v>-0.650390625</v>
       </c>
       <c r="C837">
-        <v>0.7998046875</v>
+        <v>1.19921875</v>
       </c>
     </row>
     <row r="838" spans="1:3">
@@ -9623,7 +9623,7 @@
         <v>-1</v>
       </c>
       <c r="C840">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="841" spans="1:3">
@@ -9645,7 +9645,7 @@
         <v>-0.84375</v>
       </c>
       <c r="C842">
-        <v>0.7998046875</v>
+        <v>1.19921875</v>
       </c>
     </row>
     <row r="843" spans="1:3">
@@ -9678,7 +9678,7 @@
         <v>-0.90380859375</v>
       </c>
       <c r="C845">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="846" spans="1:3">
@@ -9744,7 +9744,7 @@
         <v>-0.650390625</v>
       </c>
       <c r="C851">
-        <v>0.7998046875</v>
+        <v>1.19921875</v>
       </c>
     </row>
     <row r="852" spans="1:3">
@@ -9810,7 +9810,7 @@
         <v>-1</v>
       </c>
       <c r="C857">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="858" spans="1:3">
@@ -9832,7 +9832,7 @@
         <v>-1</v>
       </c>
       <c r="C859">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="860" spans="1:3">
@@ -9854,7 +9854,7 @@
         <v>-1.1123046875</v>
       </c>
       <c r="C861">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="862" spans="1:3">
@@ -9909,7 +9909,7 @@
         <v>-1</v>
       </c>
       <c r="C866">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="867" spans="1:3">
@@ -9931,7 +9931,7 @@
         <v>-0.90380859375</v>
       </c>
       <c r="C868">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="869" spans="1:3">
@@ -9975,7 +9975,7 @@
         <v>-1</v>
       </c>
       <c r="C872">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="873" spans="1:3">
@@ -9997,7 +9997,7 @@
         <v>-1</v>
       </c>
       <c r="C874">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="875" spans="1:3">
@@ -10019,7 +10019,7 @@
         <v>-0.90380859375</v>
       </c>
       <c r="C876">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="877" spans="1:3">
@@ -10085,7 +10085,7 @@
         <v>-1</v>
       </c>
       <c r="C882">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="883" spans="1:3">
@@ -10129,7 +10129,7 @@
         <v>-1.267578125</v>
       </c>
       <c r="C886">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="887" spans="1:3">
@@ -10173,7 +10173,7 @@
         <v>-0.650390625</v>
       </c>
       <c r="C890">
-        <v>0.7998046875</v>
+        <v>1.19921875</v>
       </c>
     </row>
     <row r="891" spans="1:3">
@@ -10206,7 +10206,7 @@
         <v>-0.84375</v>
       </c>
       <c r="C893">
-        <v>0.7998046875</v>
+        <v>1.19921875</v>
       </c>
     </row>
     <row r="894" spans="1:3">
@@ -10250,7 +10250,7 @@
         <v>-0.650390625</v>
       </c>
       <c r="C897">
-        <v>0.7998046875</v>
+        <v>1.19921875</v>
       </c>
     </row>
     <row r="898" spans="1:3">
@@ -10338,7 +10338,7 @@
         <v>-0.90380859375</v>
       </c>
       <c r="C905">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="906" spans="1:3">
@@ -10382,7 +10382,7 @@
         <v>-1</v>
       </c>
       <c r="C909">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="910" spans="1:3">
@@ -10404,7 +10404,7 @@
         <v>-0.650390625</v>
       </c>
       <c r="C911">
-        <v>0.7998046875</v>
+        <v>1.19921875</v>
       </c>
     </row>
     <row r="912" spans="1:3">
@@ -10448,7 +10448,7 @@
         <v>-0.84375</v>
       </c>
       <c r="C915">
-        <v>0.7998046875</v>
+        <v>1.19921875</v>
       </c>
     </row>
     <row r="916" spans="1:3">
@@ -10481,7 +10481,7 @@
         <v>-1</v>
       </c>
       <c r="C918">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="919" spans="1:3">
@@ -10503,7 +10503,7 @@
         <v>-1</v>
       </c>
       <c r="C920">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="921" spans="1:3">
@@ -10525,7 +10525,7 @@
         <v>-1</v>
       </c>
       <c r="C922">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="923" spans="1:3">
@@ -10547,7 +10547,7 @@
         <v>-1</v>
       </c>
       <c r="C924">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="925" spans="1:3">
@@ -10569,7 +10569,7 @@
         <v>-1</v>
       </c>
       <c r="C926">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="927" spans="1:3">
@@ -10591,7 +10591,7 @@
         <v>-0.90380859375</v>
       </c>
       <c r="C928">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="929" spans="1:3">
@@ -10668,7 +10668,7 @@
         <v>-0.650390625</v>
       </c>
       <c r="C935">
-        <v>0.7998046875</v>
+        <v>1.19921875</v>
       </c>
     </row>
     <row r="936" spans="1:3">
@@ -10712,7 +10712,7 @@
         <v>-1</v>
       </c>
       <c r="C939">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="940" spans="1:3">
@@ -10822,7 +10822,7 @@
         <v>-0.90380859375</v>
       </c>
       <c r="C949">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="950" spans="1:3">
@@ -10866,7 +10866,7 @@
         <v>-0.650390625</v>
       </c>
       <c r="C953">
-        <v>0.7998046875</v>
+        <v>1.19921875</v>
       </c>
     </row>
     <row r="954" spans="1:3">
@@ -10910,7 +10910,7 @@
         <v>-0.90380859375</v>
       </c>
       <c r="C957">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="958" spans="1:3">
@@ -10954,7 +10954,7 @@
         <v>-0.90380859375</v>
       </c>
       <c r="C961">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="962" spans="1:3">
@@ -11130,7 +11130,7 @@
         <v>-0.90380859375</v>
       </c>
       <c r="C977">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="978" spans="1:3">
@@ -11185,7 +11185,7 @@
         <v>-1</v>
       </c>
       <c r="C982">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="983" spans="1:3">
@@ -11207,7 +11207,7 @@
         <v>-1</v>
       </c>
       <c r="C984">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="985" spans="1:3">
@@ -11229,7 +11229,7 @@
         <v>-1</v>
       </c>
       <c r="C986">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="987" spans="1:3">
@@ -11251,7 +11251,7 @@
         <v>-1.267578125</v>
       </c>
       <c r="C988">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="989" spans="1:3">
@@ -11295,7 +11295,7 @@
         <v>-0.84375</v>
       </c>
       <c r="C992">
-        <v>0.7998046875</v>
+        <v>1.19921875</v>
       </c>
     </row>
     <row r="993" spans="1:3">
@@ -11339,7 +11339,7 @@
         <v>-0.90380859375</v>
       </c>
       <c r="C996">
-        <v>0.7998046875</v>
+        <v>1.2001953125</v>
       </c>
     </row>
     <row r="997" spans="1:3">
@@ -11383,7 +11383,7 @@
         <v>-0.650390625</v>
       </c>
       <c r="C1000">
-        <v>0.7998046875</v>
+        <v>1.19921875</v>
       </c>
     </row>
     <row r="1001" spans="1:3">
